--- a/playground/sample.xlsx
+++ b/playground/sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,31 @@
           <t>FUNCS</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HELLO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ASDFAFS</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ASDFASFD</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ASDFASF</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ASE</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
